--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03898133333333333</v>
+        <v>0.006001333333333333</v>
       </c>
       <c r="H2">
-        <v>0.116944</v>
+        <v>0.018004</v>
       </c>
       <c r="I2">
-        <v>0.3934368870631852</v>
+        <v>0.06719314483623444</v>
       </c>
       <c r="J2">
-        <v>0.3934368870631853</v>
+        <v>0.06719314483623443</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>0.07439944795555554</v>
+        <v>0.02557091716355556</v>
       </c>
       <c r="R2">
-        <v>0.6695950316</v>
+        <v>0.230138254472</v>
       </c>
       <c r="S2">
-        <v>0.01144119506259448</v>
+        <v>0.006090860984096929</v>
       </c>
       <c r="T2">
-        <v>0.01144119506259449</v>
+        <v>0.006090860984096927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03898133333333333</v>
+        <v>0.006001333333333333</v>
       </c>
       <c r="H3">
-        <v>0.116944</v>
+        <v>0.018004</v>
       </c>
       <c r="I3">
-        <v>0.3934368870631852</v>
+        <v>0.06719314483623444</v>
       </c>
       <c r="J3">
-        <v>0.3934368870631853</v>
+        <v>0.06719314483623443</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
-        <v>0.800083953456</v>
+        <v>0.123176148396</v>
       </c>
       <c r="R3">
-        <v>7.200755581104</v>
+        <v>1.108585335564</v>
       </c>
       <c r="S3">
-        <v>0.1230374260762015</v>
+        <v>0.02933992518288735</v>
       </c>
       <c r="T3">
-        <v>0.1230374260762015</v>
+        <v>0.02933992518288733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03898133333333333</v>
+        <v>0.006001333333333333</v>
       </c>
       <c r="H4">
-        <v>0.116944</v>
+        <v>0.018004</v>
       </c>
       <c r="I4">
-        <v>0.3934368870631852</v>
+        <v>0.06719314483623444</v>
       </c>
       <c r="J4">
-        <v>0.3934368870631853</v>
+        <v>0.06719314483623443</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>0.3398865873386667</v>
+        <v>0.05359845212088889</v>
       </c>
       <c r="R4">
-        <v>3.058979286048</v>
+        <v>0.482386069088</v>
       </c>
       <c r="S4">
-        <v>0.05226797848317725</v>
+        <v>0.01276687569487696</v>
       </c>
       <c r="T4">
-        <v>0.05226797848317727</v>
+        <v>0.01276687569487695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03898133333333333</v>
+        <v>0.006001333333333333</v>
       </c>
       <c r="H5">
-        <v>0.116944</v>
+        <v>0.018004</v>
       </c>
       <c r="I5">
-        <v>0.3934368870631852</v>
+        <v>0.06719314483623444</v>
       </c>
       <c r="J5">
-        <v>0.3934368870631853</v>
+        <v>0.06719314483623443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>0.816848694464</v>
+        <v>0.03875645663244445</v>
       </c>
       <c r="R5">
-        <v>7.351638250176</v>
+        <v>0.348808109692</v>
       </c>
       <c r="S5">
-        <v>0.1256155187545367</v>
+        <v>0.009231588686261151</v>
       </c>
       <c r="T5">
-        <v>0.1256155187545368</v>
+        <v>0.009231588686261146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03898133333333333</v>
+        <v>0.006001333333333333</v>
       </c>
       <c r="H6">
-        <v>0.116944</v>
+        <v>0.018004</v>
       </c>
       <c r="I6">
-        <v>0.3934368870631852</v>
+        <v>0.06719314483623444</v>
       </c>
       <c r="J6">
-        <v>0.3934368870631853</v>
+        <v>0.06719314483623443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>0.064000761488</v>
+        <v>0.01169380804666667</v>
       </c>
       <c r="R6">
-        <v>0.5760068533920001</v>
+        <v>0.10524427242</v>
       </c>
       <c r="S6">
-        <v>0.009842078354885358</v>
+        <v>0.002785404947792536</v>
       </c>
       <c r="T6">
-        <v>0.00984207835488536</v>
+        <v>0.002785404947792535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03898133333333333</v>
+        <v>0.006001333333333333</v>
       </c>
       <c r="H7">
-        <v>0.116944</v>
+        <v>0.018004</v>
       </c>
       <c r="I7">
-        <v>0.3934368870631852</v>
+        <v>0.06719314483623444</v>
       </c>
       <c r="J7">
-        <v>0.3934368870631853</v>
+        <v>0.06719314483623443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>0.4632097266133334</v>
+        <v>0.02929739708622222</v>
       </c>
       <c r="R7">
-        <v>4.168887539520001</v>
+        <v>0.263676573776</v>
       </c>
       <c r="S7">
-        <v>0.07123269033178994</v>
+        <v>0.006978489340319523</v>
       </c>
       <c r="T7">
-        <v>0.07123269033178997</v>
+        <v>0.006978489340319519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06009766666666666</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H8">
-        <v>0.180293</v>
+        <v>0.116944</v>
       </c>
       <c r="I8">
-        <v>0.6065631129368146</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="J8">
-        <v>0.6065631129368148</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N8">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O8">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P8">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q8">
-        <v>0.1147019057861111</v>
+        <v>0.1660944977102222</v>
       </c>
       <c r="R8">
-        <v>1.032317152075</v>
+        <v>1.494850479392</v>
       </c>
       <c r="S8">
-        <v>0.0176389330057151</v>
+        <v>0.03956285530572268</v>
       </c>
       <c r="T8">
-        <v>0.01763893300571511</v>
+        <v>0.03956285530572268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06009766666666666</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H9">
-        <v>0.180293</v>
+        <v>0.116944</v>
       </c>
       <c r="I9">
-        <v>0.6065631129368146</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="J9">
-        <v>0.6065631129368148</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q9">
-        <v>1.233492408507</v>
+        <v>0.800083953456</v>
       </c>
       <c r="R9">
-        <v>11.101431676563</v>
+        <v>7.200755581104</v>
       </c>
       <c r="S9">
-        <v>0.1896872576579952</v>
+        <v>0.1905758837251487</v>
       </c>
       <c r="T9">
-        <v>0.1896872576579952</v>
+        <v>0.1905758837251487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06009766666666666</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H10">
-        <v>0.180293</v>
+        <v>0.116944</v>
       </c>
       <c r="I10">
-        <v>0.6065631129368146</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="J10">
-        <v>0.6065631129368148</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N10">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O10">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P10">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q10">
-        <v>0.5240044165673333</v>
+        <v>0.3481458223075555</v>
       </c>
       <c r="R10">
-        <v>4.716039749106</v>
+        <v>3.133312400768</v>
       </c>
       <c r="S10">
-        <v>0.08058173693962473</v>
+        <v>0.0829265447268213</v>
       </c>
       <c r="T10">
-        <v>0.08058173693962477</v>
+        <v>0.08292654472682127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06009766666666666</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H11">
-        <v>0.180293</v>
+        <v>0.116944</v>
       </c>
       <c r="I11">
-        <v>0.6065631129368146</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="J11">
-        <v>0.6065631129368148</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N11">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q11">
-        <v>1.259338672108</v>
+        <v>0.2517404501457778</v>
       </c>
       <c r="R11">
-        <v>11.334048048972</v>
+        <v>2.265664051312</v>
       </c>
       <c r="S11">
-        <v>0.1936619127344001</v>
+        <v>0.05996328078905377</v>
       </c>
       <c r="T11">
-        <v>0.1936619127344002</v>
+        <v>0.05996328078905374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06009766666666666</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H12">
-        <v>0.180293</v>
+        <v>0.116944</v>
       </c>
       <c r="I12">
-        <v>0.6065631129368146</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="J12">
-        <v>0.6065631129368148</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N12">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O12">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P12">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q12">
-        <v>0.098670212161</v>
+        <v>0.07595649234666667</v>
       </c>
       <c r="R12">
-        <v>0.888031909449</v>
+        <v>0.68360843112</v>
       </c>
       <c r="S12">
-        <v>0.01517356882642415</v>
+        <v>0.01809244591283327</v>
       </c>
       <c r="T12">
-        <v>0.01517356882642415</v>
+        <v>0.01809244591283327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06009766666666666</v>
+        <v>0.03898133333333333</v>
       </c>
       <c r="H13">
-        <v>0.180293</v>
+        <v>0.116944</v>
       </c>
       <c r="I13">
-        <v>0.6065631129368146</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="J13">
-        <v>0.6065631129368148</v>
+        <v>0.4364494073388469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N13">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q13">
-        <v>0.7141321593266666</v>
+        <v>0.1902996447928889</v>
       </c>
       <c r="R13">
-        <v>6.42718943394</v>
+        <v>1.712696803136</v>
       </c>
       <c r="S13">
-        <v>0.1098197037726553</v>
+        <v>0.04532839687926718</v>
       </c>
       <c r="T13">
-        <v>0.1098197037726554</v>
+        <v>0.04532839687926716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.044332</v>
+      </c>
+      <c r="H14">
+        <v>0.132996</v>
+      </c>
+      <c r="I14">
+        <v>0.4963574478249187</v>
+      </c>
+      <c r="J14">
+        <v>0.4963574478249186</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.260872666666667</v>
+      </c>
+      <c r="N14">
+        <v>12.782618</v>
+      </c>
+      <c r="O14">
+        <v>0.09064705929364961</v>
+      </c>
+      <c r="P14">
+        <v>0.09064705929364959</v>
+      </c>
+      <c r="Q14">
+        <v>0.1888930070586667</v>
+      </c>
+      <c r="R14">
+        <v>1.700037063528</v>
+      </c>
+      <c r="S14">
+        <v>0.04499334300383</v>
+      </c>
+      <c r="T14">
+        <v>0.04499334300382998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.044332</v>
+      </c>
+      <c r="H15">
+        <v>0.132996</v>
+      </c>
+      <c r="I15">
+        <v>0.4963574478249187</v>
+      </c>
+      <c r="J15">
+        <v>0.4963574478249186</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>20.524797</v>
+      </c>
+      <c r="N15">
+        <v>61.574391</v>
+      </c>
+      <c r="O15">
+        <v>0.4366505728284585</v>
+      </c>
+      <c r="P15">
+        <v>0.4366505728284584</v>
+      </c>
+      <c r="Q15">
+        <v>0.9099053006040001</v>
+      </c>
+      <c r="R15">
+        <v>8.189147705436</v>
+      </c>
+      <c r="S15">
+        <v>0.2167347639204225</v>
+      </c>
+      <c r="T15">
+        <v>0.2167347639204224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.044332</v>
+      </c>
+      <c r="H16">
+        <v>0.132996</v>
+      </c>
+      <c r="I16">
+        <v>0.4963574478249187</v>
+      </c>
+      <c r="J16">
+        <v>0.4963574478249186</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.931090666666666</v>
+      </c>
+      <c r="N16">
+        <v>26.793272</v>
+      </c>
+      <c r="O16">
+        <v>0.190002651698962</v>
+      </c>
+      <c r="P16">
+        <v>0.1900026516989619</v>
+      </c>
+      <c r="Q16">
+        <v>0.3959331114346667</v>
+      </c>
+      <c r="R16">
+        <v>3.563398002912</v>
+      </c>
+      <c r="S16">
+        <v>0.09430923127726372</v>
+      </c>
+      <c r="T16">
+        <v>0.09430923127726368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.044332</v>
+      </c>
+      <c r="H17">
+        <v>0.132996</v>
+      </c>
+      <c r="I17">
+        <v>0.4963574478249187</v>
+      </c>
+      <c r="J17">
+        <v>0.4963574478249186</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.457974333333333</v>
+      </c>
+      <c r="N17">
+        <v>19.373923</v>
+      </c>
+      <c r="O17">
+        <v>0.1373888468646722</v>
+      </c>
+      <c r="P17">
+        <v>0.1373888468646721</v>
+      </c>
+      <c r="Q17">
+        <v>0.2862949181453334</v>
+      </c>
+      <c r="R17">
+        <v>2.576654263308</v>
+      </c>
+      <c r="S17">
+        <v>0.06819397738935726</v>
+      </c>
+      <c r="T17">
+        <v>0.06819397738935723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.044332</v>
+      </c>
+      <c r="H18">
+        <v>0.132996</v>
+      </c>
+      <c r="I18">
+        <v>0.4963574478249187</v>
+      </c>
+      <c r="J18">
+        <v>0.4963574478249186</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.948535</v>
+      </c>
+      <c r="N18">
+        <v>5.845605</v>
+      </c>
+      <c r="O18">
+        <v>0.04145370713904261</v>
+      </c>
+      <c r="P18">
+        <v>0.0414537071390426</v>
+      </c>
+      <c r="Q18">
+        <v>0.08638245362000001</v>
+      </c>
+      <c r="R18">
+        <v>0.77744208258</v>
+      </c>
+      <c r="S18">
+        <v>0.0205758562784168</v>
+      </c>
+      <c r="T18">
+        <v>0.0205758562784168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.044332</v>
+      </c>
+      <c r="H19">
+        <v>0.132996</v>
+      </c>
+      <c r="I19">
+        <v>0.4963574478249187</v>
+      </c>
+      <c r="J19">
+        <v>0.4963574478249186</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.881814666666666</v>
+      </c>
+      <c r="N19">
+        <v>14.645444</v>
+      </c>
+      <c r="O19">
+        <v>0.1038571621752152</v>
+      </c>
+      <c r="P19">
+        <v>0.1038571621752152</v>
+      </c>
+      <c r="Q19">
+        <v>0.2164206078026667</v>
+      </c>
+      <c r="R19">
+        <v>1.947785470224</v>
+      </c>
+      <c r="S19">
+        <v>0.05155027595562849</v>
+      </c>
+      <c r="T19">
+        <v>0.05155027595562846</v>
       </c>
     </row>
   </sheetData>
